--- a/VIVAnoAzul.xlsx
+++ b/VIVAnoAzul.xlsx
@@ -3,20 +3,56 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Faturamentos e Despesas Fixas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">VIVA NO AZUL</t>
+  </si>
+  <si>
+    <t>FATURAMENTOS</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>TÍTULO</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="dd-mmm"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
       <color theme="1"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
@@ -40,10 +76,46 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,74 +456,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,7 +471,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -485,7 +497,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -574,7 +586,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -611,10 +623,171 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="3.140625"/>
+    <col customWidth="1" min="2" max="2" width="9.7109375"/>
+    <col customWidth="1" min="3" max="3" width="30.7109375"/>
+    <col customWidth="1" min="4" max="4" width="10.7109375"/>
+    <col customWidth="1" min="5" max="5" width="0.8828125"/>
+    <col customWidth="1" min="6" max="6" width="9.7109375"/>
+    <col customWidth="1" min="7" max="7" width="30.7109375"/>
+    <col customWidth="1" min="8" max="8" width="10.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" ht="4.5" customHeight="1"/>
+    <row r="5" ht="14.25">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" s="5">
+        <v>44682</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6">
+        <v>44682</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="4.5" customHeight="1">
+      <c r="D7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" s="6">
+        <v>44682</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44682</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="4.5" customHeight="1">
+      <c r="D10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11">
+        <f>H9+H6+D12+D9+D6</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" s="12">
+        <v>44682</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>15</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:H12"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/VIVAnoAzul.xlsx
+++ b/VIVAnoAzul.xlsx
@@ -13,10 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">VIVA NO AZUL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FATURAMENTOS</t>
   </si>
@@ -30,7 +27,7 @@
     <t>VALOR</t>
   </si>
   <si>
-    <t>AAAAAAAAAAAAAAAAAAAAA</t>
+    <t xml:space="preserve">Proventos JFSC</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -40,10 +37,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="dd-mmm"/>
+  <numFmts count="2">
+    <numFmt numFmtId="160" formatCode="[$R$-416]\ #,##0.00"/>
+    <numFmt numFmtId="161" formatCode="dd-mmm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -57,13 +55,26 @@
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
+      <sz val="12.000000"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,10 +89,20 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -92,29 +113,26 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,161 +647,230 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.140625"/>
+    <col customWidth="1" min="1" max="1" width="3.2109375"/>
     <col customWidth="1" min="2" max="2" width="9.7109375"/>
     <col customWidth="1" min="3" max="3" width="30.7109375"/>
-    <col customWidth="1" min="4" max="4" width="10.7109375"/>
+    <col customWidth="1" min="4" max="4" width="15.7109375"/>
     <col customWidth="1" min="5" max="5" width="0.8828125"/>
     <col customWidth="1" min="6" max="6" width="9.7109375"/>
     <col customWidth="1" min="7" max="7" width="30.7109375"/>
-    <col customWidth="1" min="8" max="8" width="10.7109375"/>
+    <col customWidth="1" min="8" max="8" width="15.7109375"/>
+    <col customWidth="1" min="9" max="9" width="3.2109375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="B1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="4.5" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" ht="21" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" ht="4.5" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" ht="4.5" customHeight="1"/>
-    <row r="5" ht="14.25">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
+      <c r="D6" s="9">
+        <v>4421.3000000000002</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" ht="4.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="B6" s="5">
-        <v>44682</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" ht="4.5" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6">
-        <v>44682</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="4.5" customHeight="1">
-      <c r="D7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="B9" s="6">
-        <v>44682</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6">
-        <v>44682</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="4.5" customHeight="1">
-      <c r="D10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="B11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11">
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
         <f>H9+H6+D12+D9+D6</f>
-        <v>75</v>
-      </c>
+        <v>4421.3000000000002</v>
+      </c>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="B12" s="12">
-        <v>44682</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="9">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" ht="4.5" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="14">
+    <mergeCell ref="A1:A14"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:I13"/>
     <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:G12"/>
     <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:I14"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
